--- a/HouseChores/HouseChores.xlsx
+++ b/HouseChores/HouseChores.xlsx
@@ -238,7 +238,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -525,18 +525,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="8.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="8.85"/>
@@ -556,236 +555,247 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="F5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="H5" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="F9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="H9" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
